--- a/biology/Zoologie/Hérisson/Hérisson.xlsx
+++ b/biology/Zoologie/Hérisson/Hérisson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9risson</t>
+          <t>Hérisson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hérisson est un nom vernaculaire qui désigne, en français, divers petits mammifères insectivores disposant de poils agglomérés, durs, hérissés et piquants. Ce nom dérive du latin ericius.
-Les espèces les plus connues des francophones sont le Hérisson commun (Erinaceus europaeus) et le Hérisson d'Europe orientale (Erinaceus concolor) mais il existe d'autres « hérissons » sur divers continents, y compris en Asie un genre apparenté mais dont les représentants sont dépourvus de piquants : les gymnures. Ces espèces sont parfois très éloignées sur l'arbre phylogénique, mais se ressemblent par convergence évolutive[1]. Plusieurs espèces comme le Hérisson malgache (Tenrec ecaudatus) sont encore consommées dans l'océan Indien, y compris à La Réunion, d'autres sont au contraire protégées.
+Les espèces les plus connues des francophones sont le Hérisson commun (Erinaceus europaeus) et le Hérisson d'Europe orientale (Erinaceus concolor) mais il existe d'autres « hérissons » sur divers continents, y compris en Asie un genre apparenté mais dont les représentants sont dépourvus de piquants : les gymnures. Ces espèces sont parfois très éloignées sur l'arbre phylogénique, mais se ressemblent par convergence évolutive. Plusieurs espèces comme le Hérisson malgache (Tenrec ecaudatus) sont encore consommées dans l'océan Indien, y compris à La Réunion, d'autres sont au contraire protégées.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9risson</t>
+          <t>Hérisson</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle du hérisson est appelée la « hérissonne »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle du hérisson est appelée la « hérissonne ».
 Par analogie, le terme « hérisson » peut désigner d'autres animaux pourvus de piquants ou à poils raides comme le Grand aulacode (Thryonomys swinderianus), un gros rongeur au poil très dur, appelé improprement « hérisson » en Afrique centrale. Mais aussi des espèces très éloignées comme certaines chenilles très poilues appelées « hérissonnes » (Arctiinae), les oursins, appelés parfois « hérissons de mer », les diodons appelés « poissons hérissons », etc.
 Par ailleurs, il ne faut pas confondre les hérissons avec d’autres mammifères porteurs de piquants : les porcs-épics (de l'Ancien Monde (Hystricidae) ; du Nouveau Monde (Erethizontidae), les tenrecs, les échidnés.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9risson</t>
+          <t>Hérisson</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,42 +559,44 @@
           <t>Noms français et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste alphabétique des noms vernaculaires attestés en français[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste alphabétique des noms vernaculaires attestés en français.
 Note : certaines espèces ont plusieurs noms et, les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide. En gras, l'espèce la plus connue des francophones.
 Grand hérisson tenrec - Setifer setosus
-Hérisson d’Afrique australe - voir Hérisson d'Afrique du Sud[4]
-Hérisson d'Afrique du Sud - Atelerix frontalis[5]
-Hérisson d'Algérie - Atelerix algirus[5]
-Hérisson de l'Amur - Erinaceus amurensis[6]
-Hérisson de Brandt - Paraechinus hypomelas[5]
-Hérisson du Cap - voir Hérisson d'Afrique du Sud[7]
-Hérisson commun - Erinaceus europaeus[6] — celui que l'on rencontre le plus souvent en Europe
-Hérisson daurien - Mesechinus dauuricus[6]
-Hérisson du désert - Paraechinus aethiopicus[5]
-Hérisson du désert d'Éthiopie - voir hérisson du désert[6]
-Hérisson d'Europe ou Hérisson européen - voir Hérisson commun[8],[6],[9]
-Hérisson d'Europe occidentale - voir Hérisson commun[6]
-Hérisson d'Europe orientale - voir Hérisson oriental[6]
-Hérisson de l'Europe de l'Est - voir Hérisson oriental[6]
-Hérisson d'Europe de l'Ouest - voir Hérisson commun[6]
+Hérisson d’Afrique australe - voir Hérisson d'Afrique du Sud
+Hérisson d'Afrique du Sud - Atelerix frontalis
+Hérisson d'Algérie - Atelerix algirus
+Hérisson de l'Amur - Erinaceus amurensis
+Hérisson de Brandt - Paraechinus hypomelas
+Hérisson du Cap - voir Hérisson d'Afrique du Sud
+Hérisson commun - Erinaceus europaeus — celui que l'on rencontre le plus souvent en Europe
+Hérisson daurien - Mesechinus dauuricus
+Hérisson du désert - Paraechinus aethiopicus
+Hérisson du désert d'Éthiopie - voir hérisson du désert
+Hérisson d'Europe ou Hérisson européen - voir Hérisson commun
+Hérisson d'Europe occidentale - voir Hérisson commun
+Hérisson d'Europe orientale - voir Hérisson oriental
+Hérisson de l'Europe de l'Est - voir Hérisson oriental
+Hérisson d'Europe de l'Ouest - voir Hérisson commun
 Hérisson à grandes oreilles - voir Hérisson à longues oreilles
-Hérisson indien - Paraechinus micropus[5]
-Hérissons à longues oreilles - espèces du genre Hemiechinus[5]
-Hérisson aux longues oreilles - voir hérisson du désert[6]
-Hérisson de Madagascar ou Hérisson malgache - Tenrec ecaudatus[9]
-Hérisson ordinaire - voir Hérisson commun[6]
-Hérisson oreillard  - Hemiechinus auritus et toutes les espèces du genre Hemiechinus[6]
-Hérisson oreillard d'Éthiopie - voir hérisson du désert[6]
-Hérisson oriental - Erinaceus concolor[6]
+Hérisson indien - Paraechinus micropus
+Hérissons à longues oreilles - espèces du genre Hemiechinus
+Hérisson aux longues oreilles - voir hérisson du désert
+Hérisson de Madagascar ou Hérisson malgache - Tenrec ecaudatus
+Hérisson ordinaire - voir Hérisson commun
+Hérisson oreillard  - Hemiechinus auritus et toutes les espèces du genre Hemiechinus
+Hérisson oreillard d'Éthiopie - voir hérisson du désert
+Hérisson oriental - Erinaceus concolor
 Hérisson de Sclater - voir Hérisson de Somalie
-Hérisson de Somalie - Atelerix sclateri[5]
-Hérisson des steppes - Mesechinus dauuricus et Mesechinus hughi[5]
+Hérisson de Somalie - Atelerix sclateri
+Hérisson des steppes - Mesechinus dauuricus et Mesechinus hughi
 Hérisson sud-africain - voir Hérisson d'Afrique du Sud
-Hérisson à ventre blanc - Atelerix albiventris[5]
+Hérisson à ventre blanc - Atelerix albiventris
 Petit hérisson-tenrec - Echinops telfairi
-On appelle aussi « hérissons d'Asie » les gymnures (Galericinae sp.) qui toutefois sont dépourvus de piquants[8].
+On appelle aussi « hérissons d'Asie » les gymnures (Galericinae sp.) qui toutefois sont dépourvus de piquants.
 </t>
         </is>
       </c>
@@ -591,7 +607,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9risson</t>
+          <t>Hérisson</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -609,7 +625,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les hérissons sont classés dans les taxons suivants :
 Famille des Erinaceidae :
@@ -620,7 +638,7 @@
 Atelerix regroupant six espèces d'Afrique tropicale dont le hérisson sud-africain : Atelerix frontalis (A. Smith, 1831).
 Mesechinus.
 et dans la Famille des Tenrecinae :
-le Tenrec dans l’océan Indien, appelé hérisson de Madagascar[10] ;
+le Tenrec dans l’océan Indien, appelé hérisson de Madagascar ;
 le Grand hérisson ;
 Echinops telfairi, le petit hérisson-tenrec ou tenrec-hérisson.</t>
         </is>
@@ -632,7 +650,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%A9risson</t>
+          <t>Hérisson</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -650,15 +668,11 @@
           <t>Physiologie, comportement et écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les caractéristiques générales des hérissons sont celles des petits mammifères insectivores, avec des nuances pour chaque espèce : voir les articles détaillés pour plus d'informations sur leur comportement ou leur physiologie respective.
-Caractéristiques communes
-Ils disposent généralement de poils agglomérés, durs, hérissés et piquants, mais il existe d'autres « hérissons » dont les représentants sont dépourvus d'épines comme les gymnures. Ce petit mammifère mesure entre 15 et 30 cm.
-Les épines ont une fonction de protection. Les manuels antiques imaginaient qu'elles servaient à récolter de la nourriture, les hérissons étant censés grimper sur des pommiers ou des ceps de vignes, secouer leurs fruits pour les faire tomber et les embrocher pour alimenter avec ces prises leurs petits[11].
-Il est possible d'accueillir les hérissons dans son jardin, ceux-ci pouvant les débarrasser des insectes nuisibles, limaces et escargots. Il faut cependant veiller à ne pas laisser traîner des sacs plastique, des filets de légumes ou encore des pots de yaourts pour ne pas les blesser. Il ne faut également pas utiliser des produits nocifs dans son jardin, ceux-ci empoisonnant les insectes dont les hérissons se nourrissent[12].
-Évolution
-Le Hérisson d'Algérie (Erinaceus algirus) et Neotetracus sinensis sont des espèces assez proches l'une de l'autre, de même que le Grand hérisson (Setifer setosus) l'est de Microgale longicaudata. Pourtant ce sont le Hérisson d'Algérie et le Grand hérisson qui ont un aspect physique très proches l'un de l'autre, ayant développé chacun des piquants de façon indépendante. Les poils piquants et durs se sont probablement révélés, de façon parallèle, une arme efficace contre les prédateurs de ces deux espèces plus grosses, contrairement à leur homologue respectif dont l'aspect fait penser aux musaraignes[13]. Il s'agit là d'un exemple classique de convergence évolutive.
 </t>
         </is>
       </c>
@@ -669,7 +683,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>H%C3%A9risson</t>
+          <t>Hérisson</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -684,12 +698,20 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Alimentation humaine</t>
+          <t>Physiologie, comportement et écologie</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le hérisson (le « niglo ») est un plat traditionnel des tsiganes[14], mais plus du domaine de la tradition, du folklore, que de l'alimentation courante[15],[16].
+          <t>Caractéristiques communes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils disposent généralement de poils agglomérés, durs, hérissés et piquants, mais il existe d'autres « hérissons » dont les représentants sont dépourvus d'épines comme les gymnures. Ce petit mammifère mesure entre 15 et 30 cm.
+Les épines ont une fonction de protection. Les manuels antiques imaginaient qu'elles servaient à récolter de la nourriture, les hérissons étant censés grimper sur des pommiers ou des ceps de vignes, secouer leurs fruits pour les faire tomber et les embrocher pour alimenter avec ces prises leurs petits.
+Il est possible d'accueillir les hérissons dans son jardin, ceux-ci pouvant les débarrasser des insectes nuisibles, limaces et escargots. Il faut cependant veiller à ne pas laisser traîner des sacs plastique, des filets de légumes ou encore des pots de yaourts pour ne pas les blesser. Il ne faut également pas utiliser des produits nocifs dans son jardin, ceux-ci empoisonnant les insectes dont les hérissons se nourrissent.
 </t>
         </is>
       </c>
@@ -700,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>H%C3%A9risson</t>
+          <t>Hérisson</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -715,13 +737,85 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Physiologie, comportement et écologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Évolution</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Hérisson d'Algérie (Erinaceus algirus) et Neotetracus sinensis sont des espèces assez proches l'une de l'autre, de même que le Grand hérisson (Setifer setosus) l'est de Microgale longicaudata. Pourtant ce sont le Hérisson d'Algérie et le Grand hérisson qui ont un aspect physique très proches l'un de l'autre, ayant développé chacun des piquants de façon indépendante. Les poils piquants et durs se sont probablement révélés, de façon parallèle, une arme efficace contre les prédateurs de ces deux espèces plus grosses, contrairement à leur homologue respectif dont l'aspect fait penser aux musaraignes. Il s'agit là d'un exemple classique de convergence évolutive.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hérisson</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9risson</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Alimentation humaine</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le hérisson (le « niglo ») est un plat traditionnel des tsiganes, mais plus du domaine de la tradition, du folklore, que de l'alimentation courante,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hérisson</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9risson</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Les hérissons dans la culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les hérissons sont très présents dans la culture, le folklore et les croyances populaires[17].
-On retrouve ainsi de nombreux noms de communes, lieux dits, cours d'eau dérivés du nom du hérisson[18].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hérissons sont très présents dans la culture, le folklore et les croyances populaires.
+On retrouve ainsi de nombreux noms de communes, lieux dits, cours d'eau dérivés du nom du hérisson.
 En héraldique, le hérisson est souvent présent comme emblème sur des blasons.
 Un hérisson est le personnage principal du court métrage d'animation russe Le Hérisson dans le brouillard de Iouri Norstein.
 Le hérisson a inspiré le personnage de Sonic du jeu vidéo Sonic The Hedgehog sorti en 1991. Il est devenu en quelque sorte la mascotte de la firme nippone Sega, en réponse à Mario de Nintendo, dans la bataille des consoles de jeux video de salon des années 90.
@@ -729,34 +823,36 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>H%C3%A9risson</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/H%C3%A9risson</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hérisson</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9risson</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Royaume-Uni, les populations de hérissons ont chuté de 36,5 millions d’individus dans les années 1950 à 1,55 million en 1995. Le déclin s'est encore accentué depuis lors : selon plusieurs études britanniques, en moins de vingt ans, les populations ont encore diminué de 30 % dans les zones urbaines et jusqu’à 75 % dans les campagnes[19].
-En France, il n’existe aucune statistique mais la situation est vraisemblablement analogue, en particulier en raison de l'usage massif de pesticides qui intoxiquent les hérissons[20] et du trafic automobile[19] (écrasés par les roues des voitures).
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Royaume-Uni, les populations de hérissons ont chuté de 36,5 millions d’individus dans les années 1950 à 1,55 million en 1995. Le déclin s'est encore accentué depuis lors : selon plusieurs études britanniques, en moins de vingt ans, les populations ont encore diminué de 30 % dans les zones urbaines et jusqu’à 75 % dans les campagnes.
+En France, il n’existe aucune statistique mais la situation est vraisemblablement analogue, en particulier en raison de l'usage massif de pesticides qui intoxiquent les hérissons et du trafic automobile (écrasés par les roues des voitures).
 </t>
         </is>
       </c>
